--- a/src/main/resources/excel/导出考生成绩测试.xlsx
+++ b/src/main/resources/excel/导出考生成绩测试.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaozhi/Desktop/gitLocal/ExcelUtils/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoxuedui/Project/ExcelUtils/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA113C69-54DE-0042-9410-1E77E39156DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412AE202-498E-834D-B434-D725DD50F647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,16 +241,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,43 +560,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3"/>
@@ -621,19 +621,19 @@
       <c r="AG1" s="3"/>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" ht="29" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1660,6 +1660,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
@@ -1668,11 +1673,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
